--- a/biology/Histoire de la zoologie et de la botanique/Carl_Eduard_Adolph_Gerstäcker/Carl_Eduard_Adolph_Gerstäcker.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Eduard_Adolph_Gerstäcker/Carl_Eduard_Adolph_Gerstäcker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carl_Eduard_Adolph_Gerst%C3%A4cker</t>
+          <t>Carl_Eduard_Adolph_Gerstäcker</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carl Eduard Adolph Gerstäcker[1] est un zoologiste allemand, né le 30 août 1828 à Berlin et mort le 20 juin 1895 à Greifswald.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl Eduard Adolph Gerstäcker est un zoologiste allemand, né le 30 août 1828 à Berlin et mort le 20 juin 1895 à Greifswald.
 Il étudie la médecine et l’histoire naturelle à Berlin et travaille, de 1857 à 1876 au musée de zoologie de Berlin (l'actuel musée d'histoire naturelle de Berlin). Il y exerce la fonction de professeur extraordinaire de zoologie en 1874 et, deux ans plus tard, il est professeur titulaire à l’université de Greifswald. En 1894, il devient privatdozent à l’institut agricole de Berlin.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carl_Eduard_Adolph_Gerst%C3%A4cker</t>
+          <t>Carl_Eduard_Adolph_Gerstäcker</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1858 : Monographie der Endomychiden
 1863-1875 : avec Wilhelm Peters (1815-1883) et Julius Victor Carus (1823-1903), Handbuch der Zoologie (Leipzig)
